--- a/public/template-import-soal.xlsx
+++ b/public/template-import-soal.xlsx
@@ -397,75 +397,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Judul Ujian</v>
+        <v>examTitle</v>
       </c>
       <c r="B1" t="str">
-        <v>Mata Pelajaran</v>
+        <v>examSubject</v>
       </c>
       <c r="C1" t="str">
-        <v>Pertanyaan</v>
+        <v>questionText</v>
       </c>
       <c r="D1" t="str">
-        <v>Pilihan A</v>
+        <v>optionA</v>
       </c>
       <c r="E1" t="str">
-        <v>Pilihan B</v>
+        <v>optionB</v>
       </c>
       <c r="F1" t="str">
-        <v>Pilihan C</v>
+        <v>optionC</v>
       </c>
       <c r="G1" t="str">
-        <v>Pilihan D</v>
+        <v>optionD</v>
       </c>
       <c r="H1" t="str">
-        <v>Jawaban Benar</v>
+        <v>correctAnswer</v>
       </c>
       <c r="I1" t="str">
-        <v>Poin</v>
+        <v>points</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Testing CBT</v>
+        <v>Matematika Dasar</v>
       </c>
       <c r="B2" t="str">
-        <v>Umum</v>
+        <v>Matematika</v>
       </c>
       <c r="C2" t="str">
-        <v>Apa ibukota Indonesia?</v>
+        <v>Berapa hasil dari 2 + 2?</v>
       </c>
       <c r="D2" t="str">
-        <v>Jakarta</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
-        <v>Bandung</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
-        <v>Surabaya</v>
+        <v>5</v>
       </c>
       <c r="G2" t="str">
-        <v>Medan</v>
+        <v>6</v>
       </c>
       <c r="H2" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -473,25 +473,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Testing CBT</v>
+        <v>Matematika Dasar</v>
       </c>
       <c r="B3" t="str">
-        <v>Umum</v>
+        <v>Matematika</v>
       </c>
       <c r="C3" t="str">
-        <v>Berapa hasil 2+2?</v>
+        <v>Berapa hasil dari 3 x 3?</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" t="str">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H3" t="str">
         <v>B</v>
@@ -502,123 +502,36 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Testing CBT</v>
+        <v>Matematika Dasar</v>
       </c>
       <c r="B4" t="str">
-        <v>Umum</v>
+        <v>Matematika</v>
       </c>
       <c r="C4" t="str">
-        <v>Siapa presiden pertama Indonesia?</v>
+        <v>Berapa hasil dari 10 - 5?</v>
       </c>
       <c r="D4" t="str">
-        <v>Soekarno</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>Soeharto</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
-        <v>Habibie</v>
+        <v>5</v>
       </c>
       <c r="G4" t="str">
-        <v>Megawati</v>
+        <v>6</v>
       </c>
       <c r="H4" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Matematika Dasar</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Matematika</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Berapa hasil 10 + 5?</v>
-      </c>
-      <c r="D5" t="str">
-        <v>13</v>
-      </c>
-      <c r="E5" t="str">
-        <v>14</v>
-      </c>
-      <c r="F5" t="str">
-        <v>15</v>
-      </c>
-      <c r="G5" t="str">
-        <v>16</v>
-      </c>
-      <c r="H5" t="str">
-        <v>C</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Matematika Dasar</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Matematika</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Berapa hasil 20 - 8?</v>
-      </c>
-      <c r="D6" t="str">
-        <v>10</v>
-      </c>
-      <c r="E6" t="str">
-        <v>11</v>
-      </c>
-      <c r="F6" t="str">
-        <v>12</v>
-      </c>
-      <c r="G6" t="str">
-        <v>13</v>
-      </c>
-      <c r="H6" t="str">
-        <v>C</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Bahasa Indonesia</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Bahasa</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Kata "membaca" termasuk kata...</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Kerja</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Sifat</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Benda</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Keterangan</v>
-      </c>
-      <c r="H7" t="str">
-        <v>A</v>
-      </c>
-      <c r="I7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>